--- a/ESERCIZIO_M2-1-2_dati.xlsx
+++ b/ESERCIZIO_M2-1-2_dati.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/576cc10a439d64a5/Desktop/Epicode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="92" documentId="8_{A1B135A6-CE2A-4E42-885E-03F76C66D40D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{068E6CFD-4078-4A99-9EFA-9507C6344BEB}"/>
+  <xr:revisionPtr revIDLastSave="328" documentId="8_{A1B135A6-CE2A-4E42-885E-03F76C66D40D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF46E3AB-4C36-4DED-B0B0-B5CFF67CDC02}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parcheggio" sheetId="1" r:id="rId1"/>
     <sheet name="Frutta" sheetId="2" r:id="rId2"/>
+    <sheet name="Foglio1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Frutta!$A$1:$C$47</definedName>
@@ -90,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="117">
   <si>
     <t>TARGA</t>
   </si>
@@ -107,121 +108,61 @@
     <t>AC234DF</t>
   </si>
   <si>
-    <t>1.5</t>
-  </si>
-  <si>
     <t>LM789GH</t>
   </si>
   <si>
-    <t>2.5</t>
-  </si>
-  <si>
     <t>PQ456IJ</t>
   </si>
   <si>
-    <t>3.5</t>
-  </si>
-  <si>
     <t>UV123KL</t>
   </si>
   <si>
-    <t>4.5</t>
-  </si>
-  <si>
     <t>WX789MN</t>
   </si>
   <si>
-    <t>5.5</t>
-  </si>
-  <si>
     <t>YZ012OP</t>
   </si>
   <si>
-    <t>6.5</t>
-  </si>
-  <si>
     <t>AB345QR</t>
   </si>
   <si>
-    <t>7.5</t>
-  </si>
-  <si>
     <t>CD678ST</t>
   </si>
   <si>
-    <t>8.5</t>
-  </si>
-  <si>
     <t>EF901UV</t>
   </si>
   <si>
-    <t>9.5</t>
-  </si>
-  <si>
     <t>GH234WX</t>
   </si>
   <si>
-    <t>10.0</t>
-  </si>
-  <si>
     <t>IJ567YZ</t>
   </si>
   <si>
-    <t>0.5</t>
-  </si>
-  <si>
     <t>KL890AB</t>
   </si>
   <si>
-    <t>1.0</t>
-  </si>
-  <si>
     <t>MN123CD</t>
   </si>
   <si>
-    <t>2.0</t>
-  </si>
-  <si>
     <t>OP456EF</t>
   </si>
   <si>
-    <t>3.0</t>
-  </si>
-  <si>
     <t>QR789GH</t>
   </si>
   <si>
-    <t>4.0</t>
-  </si>
-  <si>
     <t>ST012IJ</t>
   </si>
   <si>
-    <t>5.0</t>
-  </si>
-  <si>
     <t>UV345KL</t>
   </si>
   <si>
-    <t>6.0</t>
-  </si>
-  <si>
     <t>WX678MN</t>
   </si>
   <si>
-    <t>7.0</t>
-  </si>
-  <si>
     <t>YZ901OP</t>
   </si>
   <si>
-    <t>8.0</t>
-  </si>
-  <si>
     <t>AB234QR</t>
-  </si>
-  <si>
-    <t>9.0</t>
   </si>
   <si>
     <t>CD567ST</t>
@@ -507,7 +448,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -537,12 +482,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -568,14 +507,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -815,10 +753,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z103"/>
+  <dimension ref="A1:Z101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -829,7 +767,7 @@
     <col min="7" max="7" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -844,10 +782,10 @@
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>3</v>
@@ -862,13 +800,13 @@
         <v>2</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -882,18 +820,18 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
+      <c r="B2" s="5">
+        <v>1.5</v>
       </c>
       <c r="C2" cm="1">
         <f t="array" ref="C2">_xlfn.IFS(AND(LEFT(A2,1)&gt;="A",LEFT(A2,1)&lt;="F"),0,AND(LEFT(A2,1)&gt;="G",LEFT(A2,1)&lt;="M"),1,AND(LEFT(A2,1)&gt;="N",LEFT(A2,1)&lt;="Z"),2)</f>
         <v>0</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <f>VLOOKUP(A2,$J$1:$O$101,6,FALSE)</f>
         <v>6</v>
       </c>
@@ -909,38 +847,38 @@
       <c r="J2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="5" cm="1">
+      <c r="K2" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="L2" cm="1">
         <f t="array" ref="L2">_xlfn.IFS(AND(LEFT(J2,1)&gt;="A",LEFT(J2,1)&lt;="F"),0,AND(LEFT(J2,1)&gt;="G",LEFT(J2,1)&lt;="M"),1,AND(LEFT(J2,1)&gt;="N",LEFT(J2,1)&lt;="Z"),2)</f>
         <v>0</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="3">
         <f>_xlfn.NUMBERVALUE(VLOOKUP(L2,$F$1:$H$4,2,FALSE))</f>
         <v>0.5</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2">
         <f>VLOOKUP(L2,$F$1:$H$4,3,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2">
         <f>N2*K2/M2</f>
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="B3" s="5">
+        <v>2.5</v>
       </c>
       <c r="C3" cm="1">
         <f t="array" ref="C3">_xlfn.IFS(AND(LEFT(A3,1)&gt;="A",LEFT(A3,1)&lt;="F"),0,AND(LEFT(A3,1)&gt;="G",LEFT(A3,1)&lt;="M"),1,AND(LEFT(A3,1)&gt;="N",LEFT(A3,1)&lt;="Z"),2)</f>
         <v>1</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="4">
         <f t="shared" ref="D3:D66" si="0">VLOOKUP(A3,$J$1:$O$101,6,FALSE)</f>
         <v>7.5</v>
       </c>
@@ -954,40 +892,40 @@
         <v>1.5</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="5" cm="1">
+        <v>5</v>
+      </c>
+      <c r="K3" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="L3" cm="1">
         <f t="array" ref="L3">_xlfn.IFS(AND(LEFT(J3,1)&gt;="A",LEFT(J3,1)&lt;="F"),0,AND(LEFT(J3,1)&gt;="G",LEFT(J3,1)&lt;="M"),1,AND(LEFT(J3,1)&gt;="N",LEFT(J3,1)&lt;="Z"),2)</f>
         <v>1</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="3">
         <f t="shared" ref="M3:M66" si="1">VLOOKUP(L3,$F$1:$H$4,2,FALSE)</f>
         <v>0.5</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3">
         <f t="shared" ref="N3:N66" si="2">VLOOKUP(L3,$F$1:$H$4,3,FALSE)</f>
         <v>1.5</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3">
         <f t="shared" ref="O3:O66" si="3">N3*K3/M3</f>
         <v>7.5</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="B4" s="5">
+        <v>3.5</v>
       </c>
       <c r="C4" cm="1">
         <f t="array" ref="C4">_xlfn.IFS(AND(LEFT(A4,1)&gt;="A",LEFT(A4,1)&lt;="F"),0,AND(LEFT(A4,1)&gt;="G",LEFT(A4,1)&lt;="M"),1,AND(LEFT(A4,1)&gt;="N",LEFT(A4,1)&lt;="Z"),2)</f>
         <v>2</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -1001,3731 +939,3717 @@
         <v>2</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="5" cm="1">
+        <v>6</v>
+      </c>
+      <c r="K4" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="L4" cm="1">
         <f t="array" ref="L4">_xlfn.IFS(AND(LEFT(J4,1)&gt;="A",LEFT(J4,1)&lt;="F"),0,AND(LEFT(J4,1)&gt;="G",LEFT(J4,1)&lt;="M"),1,AND(LEFT(J4,1)&gt;="N",LEFT(J4,1)&lt;="Z"),2)</f>
         <v>2</v>
       </c>
-      <c r="M4" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N4" s="5">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="O4" s="5">
+      <c r="M4" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O4">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="B5" s="5">
+        <v>4.5</v>
       </c>
       <c r="C5" cm="1">
         <f t="array" ref="C5">_xlfn.IFS(AND(LEFT(A5,1)&gt;="A",LEFT(A5,1)&lt;="F"),0,AND(LEFT(A5,1)&gt;="G",LEFT(A5,1)&lt;="M"),1,AND(LEFT(A5,1)&gt;="N",LEFT(A5,1)&lt;="Z"),2)</f>
         <v>2</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" s="5" cm="1">
+        <v>7</v>
+      </c>
+      <c r="K5" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="L5" cm="1">
         <f t="array" ref="L5">_xlfn.IFS(AND(LEFT(J5,1)&gt;="A",LEFT(J5,1)&lt;="F"),0,AND(LEFT(J5,1)&gt;="G",LEFT(J5,1)&lt;="M"),1,AND(LEFT(J5,1)&gt;="N",LEFT(J5,1)&lt;="Z"),2)</f>
         <v>2</v>
       </c>
-      <c r="M5" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N5" s="5">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="O5" s="5">
+      <c r="M5" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O5">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="B6" s="5">
+        <v>5.5</v>
       </c>
       <c r="C6" cm="1">
         <f t="array" ref="C6">_xlfn.IFS(AND(LEFT(A6,1)&gt;="A",LEFT(A6,1)&lt;="F"),0,AND(LEFT(A6,1)&gt;="G",LEFT(A6,1)&lt;="M"),1,AND(LEFT(A6,1)&gt;="N",LEFT(A6,1)&lt;="Z"),2)</f>
         <v>2</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L6" s="5" cm="1">
+        <v>8</v>
+      </c>
+      <c r="K6" s="5">
+        <v>5.5</v>
+      </c>
+      <c r="L6" cm="1">
         <f t="array" ref="L6">_xlfn.IFS(AND(LEFT(J6,1)&gt;="A",LEFT(J6,1)&lt;="F"),0,AND(LEFT(J6,1)&gt;="G",LEFT(J6,1)&lt;="M"),1,AND(LEFT(J6,1)&gt;="N",LEFT(J6,1)&lt;="Z"),2)</f>
         <v>2</v>
       </c>
-      <c r="M6" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N6" s="5">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="O6" s="5">
+      <c r="M6" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O6">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="B7" s="5">
+        <v>6.5</v>
       </c>
       <c r="C7" cm="1">
         <f t="array" ref="C7">_xlfn.IFS(AND(LEFT(A7,1)&gt;="A",LEFT(A7,1)&lt;="F"),0,AND(LEFT(A7,1)&gt;="G",LEFT(A7,1)&lt;="M"),1,AND(LEFT(A7,1)&gt;="N",LEFT(A7,1)&lt;="Z"),2)</f>
         <v>2</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7" s="5" cm="1">
+        <v>9</v>
+      </c>
+      <c r="K7" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="L7" cm="1">
         <f t="array" ref="L7">_xlfn.IFS(AND(LEFT(J7,1)&gt;="A",LEFT(J7,1)&lt;="F"),0,AND(LEFT(J7,1)&gt;="G",LEFT(J7,1)&lt;="M"),1,AND(LEFT(J7,1)&gt;="N",LEFT(J7,1)&lt;="Z"),2)</f>
         <v>2</v>
       </c>
-      <c r="M7" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N7" s="5">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="O7" s="5">
+      <c r="M7" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O7">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="B8" s="5">
+        <v>7.5</v>
       </c>
       <c r="C8" cm="1">
         <f t="array" ref="C8">_xlfn.IFS(AND(LEFT(A8,1)&gt;="A",LEFT(A8,1)&lt;="F"),0,AND(LEFT(A8,1)&gt;="G",LEFT(A8,1)&lt;="M"),1,AND(LEFT(A8,1)&gt;="N",LEFT(A8,1)&lt;="Z"),2)</f>
         <v>0</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L8" s="5" cm="1">
+        <v>10</v>
+      </c>
+      <c r="K8" s="5">
+        <v>7.5</v>
+      </c>
+      <c r="L8" cm="1">
         <f t="array" ref="L8">_xlfn.IFS(AND(LEFT(J8,1)&gt;="A",LEFT(J8,1)&lt;="F"),0,AND(LEFT(J8,1)&gt;="G",LEFT(J8,1)&lt;="M"),1,AND(LEFT(J8,1)&gt;="N",LEFT(J8,1)&lt;="Z"),2)</f>
         <v>0</v>
       </c>
-      <c r="M8" s="6">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="N8" s="5">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="O8" s="5">
+      <c r="M8" s="3">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O8">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
+      </c>
+      <c r="B9" s="5">
+        <v>8.5</v>
       </c>
       <c r="C9" cm="1">
         <f t="array" ref="C9">_xlfn.IFS(AND(LEFT(A9,1)&gt;="A",LEFT(A9,1)&lt;="F"),0,AND(LEFT(A9,1)&gt;="G",LEFT(A9,1)&lt;="M"),1,AND(LEFT(A9,1)&gt;="N",LEFT(A9,1)&lt;="Z"),2)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="4">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="G9" s="3"/>
       <c r="J9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9" s="5" cm="1">
+        <v>11</v>
+      </c>
+      <c r="K9" s="5">
+        <v>8.5</v>
+      </c>
+      <c r="L9" cm="1">
         <f t="array" ref="L9">_xlfn.IFS(AND(LEFT(J9,1)&gt;="A",LEFT(J9,1)&lt;="F"),0,AND(LEFT(J9,1)&gt;="G",LEFT(J9,1)&lt;="M"),1,AND(LEFT(J9,1)&gt;="N",LEFT(J9,1)&lt;="Z"),2)</f>
         <v>0</v>
       </c>
-      <c r="M9" s="6">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="N9" s="5">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="O9" s="5">
+      <c r="M9" s="3">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O9">
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="B10" s="5">
+        <v>9.5</v>
       </c>
       <c r="C10" cm="1">
         <f t="array" ref="C10">_xlfn.IFS(AND(LEFT(A10,1)&gt;="A",LEFT(A10,1)&lt;="F"),0,AND(LEFT(A10,1)&gt;="G",LEFT(A10,1)&lt;="M"),1,AND(LEFT(A10,1)&gt;="N",LEFT(A10,1)&lt;="Z"),2)</f>
         <v>0</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="4">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" s="5" cm="1">
+        <v>12</v>
+      </c>
+      <c r="K10" s="5">
+        <v>9.5</v>
+      </c>
+      <c r="L10" cm="1">
         <f t="array" ref="L10">_xlfn.IFS(AND(LEFT(J10,1)&gt;="A",LEFT(J10,1)&lt;="F"),0,AND(LEFT(J10,1)&gt;="G",LEFT(J10,1)&lt;="M"),1,AND(LEFT(J10,1)&gt;="N",LEFT(J10,1)&lt;="Z"),2)</f>
         <v>0</v>
       </c>
-      <c r="M10" s="6">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="N10" s="5">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="O10" s="5">
+      <c r="M10" s="3">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O10">
         <f t="shared" si="3"/>
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0.5</v>
       </c>
       <c r="C11" cm="1">
         <f t="array" ref="C11">_xlfn.IFS(AND(LEFT(A11,1)&gt;="A",LEFT(A11,1)&lt;="F"),0,AND(LEFT(A11,1)&gt;="G",LEFT(A11,1)&lt;="M"),1,AND(LEFT(A11,1)&gt;="N",LEFT(A11,1)&lt;="Z"),2)</f>
         <v>1</v>
       </c>
-      <c r="D11" s="3">
-        <f t="shared" si="0"/>
-        <v>30</v>
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L11" s="5" cm="1">
+        <v>13</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="L11" cm="1">
         <f t="array" ref="L11">_xlfn.IFS(AND(LEFT(J11,1)&gt;="A",LEFT(J11,1)&lt;="F"),0,AND(LEFT(J11,1)&gt;="G",LEFT(J11,1)&lt;="M"),1,AND(LEFT(J11,1)&gt;="N",LEFT(J11,1)&lt;="Z"),2)</f>
         <v>1</v>
       </c>
-      <c r="M11" s="6">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="N11" s="5">
+      <c r="M11" s="3">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="N11">
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="O11" s="5">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="O11">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0.5</v>
       </c>
       <c r="C12" cm="1">
         <f t="array" ref="C12">_xlfn.IFS(AND(LEFT(A12,1)&gt;="A",LEFT(A12,1)&lt;="F"),0,AND(LEFT(A12,1)&gt;="G",LEFT(A12,1)&lt;="M"),1,AND(LEFT(A12,1)&gt;="N",LEFT(A12,1)&lt;="Z"),2)</f>
         <v>1</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="4">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L12" s="5" cm="1">
+        <v>14</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="L12" cm="1">
         <f t="array" ref="L12">_xlfn.IFS(AND(LEFT(J12,1)&gt;="A",LEFT(J12,1)&lt;="F"),0,AND(LEFT(J12,1)&gt;="G",LEFT(J12,1)&lt;="M"),1,AND(LEFT(J12,1)&gt;="N",LEFT(J12,1)&lt;="Z"),2)</f>
         <v>1</v>
       </c>
-      <c r="M12" s="6">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="N12" s="5">
+      <c r="M12" s="3">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="N12">
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="O12" s="5">
+      <c r="O12">
         <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
+      </c>
+      <c r="B13" s="5">
+        <v>1</v>
       </c>
       <c r="C13" cm="1">
         <f t="array" ref="C13">_xlfn.IFS(AND(LEFT(A13,1)&gt;="A",LEFT(A13,1)&lt;="F"),0,AND(LEFT(A13,1)&gt;="G",LEFT(A13,1)&lt;="M"),1,AND(LEFT(A13,1)&gt;="N",LEFT(A13,1)&lt;="Z"),2)</f>
         <v>1</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L13" s="5" cm="1">
+        <v>15</v>
+      </c>
+      <c r="K13" s="5">
+        <v>1</v>
+      </c>
+      <c r="L13" cm="1">
         <f t="array" ref="L13">_xlfn.IFS(AND(LEFT(J13,1)&gt;="A",LEFT(J13,1)&lt;="F"),0,AND(LEFT(J13,1)&gt;="G",LEFT(J13,1)&lt;="M"),1,AND(LEFT(J13,1)&gt;="N",LEFT(J13,1)&lt;="Z"),2)</f>
         <v>1</v>
       </c>
-      <c r="M13" s="6">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="N13" s="5">
+      <c r="M13" s="3">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="N13">
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="O13" s="5">
+      <c r="O13">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>29</v>
+        <v>16</v>
+      </c>
+      <c r="B14" s="5">
+        <v>2</v>
       </c>
       <c r="C14" cm="1">
         <f t="array" ref="C14">_xlfn.IFS(AND(LEFT(A14,1)&gt;="A",LEFT(A14,1)&lt;="F"),0,AND(LEFT(A14,1)&gt;="G",LEFT(A14,1)&lt;="M"),1,AND(LEFT(A14,1)&gt;="N",LEFT(A14,1)&lt;="Z"),2)</f>
         <v>1</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L14" s="5" cm="1">
+        <v>16</v>
+      </c>
+      <c r="K14" s="5">
+        <v>2</v>
+      </c>
+      <c r="L14" cm="1">
         <f t="array" ref="L14">_xlfn.IFS(AND(LEFT(J14,1)&gt;="A",LEFT(J14,1)&lt;="F"),0,AND(LEFT(J14,1)&gt;="G",LEFT(J14,1)&lt;="M"),1,AND(LEFT(J14,1)&gt;="N",LEFT(J14,1)&lt;="Z"),2)</f>
         <v>1</v>
       </c>
-      <c r="M14" s="6">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="N14" s="5">
+      <c r="M14" s="3">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="N14">
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="O14" s="5">
+      <c r="O14">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
+      </c>
+      <c r="B15" s="5">
+        <v>3</v>
       </c>
       <c r="C15" cm="1">
         <f t="array" ref="C15">_xlfn.IFS(AND(LEFT(A15,1)&gt;="A",LEFT(A15,1)&lt;="F"),0,AND(LEFT(A15,1)&gt;="G",LEFT(A15,1)&lt;="M"),1,AND(LEFT(A15,1)&gt;="N",LEFT(A15,1)&lt;="Z"),2)</f>
         <v>2</v>
       </c>
-      <c r="D15" s="3">
-        <f t="shared" si="0"/>
+      <c r="D15" s="4">
+        <f>VLOOKUP(A15,$J$1:$O$101,6,FALSE)</f>
         <v>6</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L15" s="5" cm="1">
+        <v>17</v>
+      </c>
+      <c r="K15" s="5">
+        <v>3</v>
+      </c>
+      <c r="L15" cm="1">
         <f t="array" ref="L15">_xlfn.IFS(AND(LEFT(J15,1)&gt;="A",LEFT(J15,1)&lt;="F"),0,AND(LEFT(J15,1)&gt;="G",LEFT(J15,1)&lt;="M"),1,AND(LEFT(J15,1)&gt;="N",LEFT(J15,1)&lt;="Z"),2)</f>
         <v>2</v>
       </c>
-      <c r="M15" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N15" s="5">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="O15" s="5">
+      <c r="M15" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O15">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>33</v>
+        <v>18</v>
+      </c>
+      <c r="B16" s="5">
+        <v>4</v>
       </c>
       <c r="C16" cm="1">
         <f t="array" ref="C16">_xlfn.IFS(AND(LEFT(A16,1)&gt;="A",LEFT(A16,1)&lt;="F"),0,AND(LEFT(A16,1)&gt;="G",LEFT(A16,1)&lt;="M"),1,AND(LEFT(A16,1)&gt;="N",LEFT(A16,1)&lt;="Z"),2)</f>
         <v>2</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L16" s="5" cm="1">
+        <v>18</v>
+      </c>
+      <c r="K16" s="5">
+        <v>4</v>
+      </c>
+      <c r="L16" cm="1">
         <f t="array" ref="L16">_xlfn.IFS(AND(LEFT(J16,1)&gt;="A",LEFT(J16,1)&lt;="F"),0,AND(LEFT(J16,1)&gt;="G",LEFT(J16,1)&lt;="M"),1,AND(LEFT(J16,1)&gt;="N",LEFT(J16,1)&lt;="Z"),2)</f>
         <v>2</v>
       </c>
-      <c r="M16" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N16" s="5">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="O16" s="5">
+      <c r="M16" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O16">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>35</v>
+        <v>19</v>
+      </c>
+      <c r="B17" s="5">
+        <v>5</v>
       </c>
       <c r="C17" cm="1">
         <f t="array" ref="C17">_xlfn.IFS(AND(LEFT(A17,1)&gt;="A",LEFT(A17,1)&lt;="F"),0,AND(LEFT(A17,1)&gt;="G",LEFT(A17,1)&lt;="M"),1,AND(LEFT(A17,1)&gt;="N",LEFT(A17,1)&lt;="Z"),2)</f>
         <v>2</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L17" s="5" cm="1">
+        <v>19</v>
+      </c>
+      <c r="K17" s="5">
+        <v>5</v>
+      </c>
+      <c r="L17" cm="1">
         <f t="array" ref="L17">_xlfn.IFS(AND(LEFT(J17,1)&gt;="A",LEFT(J17,1)&lt;="F"),0,AND(LEFT(J17,1)&gt;="G",LEFT(J17,1)&lt;="M"),1,AND(LEFT(J17,1)&gt;="N",LEFT(J17,1)&lt;="Z"),2)</f>
         <v>2</v>
       </c>
-      <c r="M17" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N17" s="5">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="O17" s="5">
+      <c r="M17" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O17">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>37</v>
+        <v>20</v>
+      </c>
+      <c r="B18" s="5">
+        <v>6</v>
       </c>
       <c r="C18" cm="1">
         <f t="array" ref="C18">_xlfn.IFS(AND(LEFT(A18,1)&gt;="A",LEFT(A18,1)&lt;="F"),0,AND(LEFT(A18,1)&gt;="G",LEFT(A18,1)&lt;="M"),1,AND(LEFT(A18,1)&gt;="N",LEFT(A18,1)&lt;="Z"),2)</f>
         <v>2</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="L18" s="5" cm="1">
+        <v>20</v>
+      </c>
+      <c r="K18" s="5">
+        <v>6</v>
+      </c>
+      <c r="L18" cm="1">
         <f t="array" ref="L18">_xlfn.IFS(AND(LEFT(J18,1)&gt;="A",LEFT(J18,1)&lt;="F"),0,AND(LEFT(J18,1)&gt;="G",LEFT(J18,1)&lt;="M"),1,AND(LEFT(J18,1)&gt;="N",LEFT(J18,1)&lt;="Z"),2)</f>
         <v>2</v>
       </c>
-      <c r="M18" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N18" s="5">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="O18" s="5">
+      <c r="M18" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O18">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>39</v>
+        <v>21</v>
+      </c>
+      <c r="B19" s="5">
+        <v>7</v>
       </c>
       <c r="C19" cm="1">
         <f t="array" ref="C19">_xlfn.IFS(AND(LEFT(A19,1)&gt;="A",LEFT(A19,1)&lt;="F"),0,AND(LEFT(A19,1)&gt;="G",LEFT(A19,1)&lt;="M"),1,AND(LEFT(A19,1)&gt;="N",LEFT(A19,1)&lt;="Z"),2)</f>
         <v>2</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L19" s="5" cm="1">
+        <v>21</v>
+      </c>
+      <c r="K19" s="5">
+        <v>7</v>
+      </c>
+      <c r="L19" cm="1">
         <f t="array" ref="L19">_xlfn.IFS(AND(LEFT(J19,1)&gt;="A",LEFT(J19,1)&lt;="F"),0,AND(LEFT(J19,1)&gt;="G",LEFT(J19,1)&lt;="M"),1,AND(LEFT(J19,1)&gt;="N",LEFT(J19,1)&lt;="Z"),2)</f>
         <v>2</v>
       </c>
-      <c r="M19" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N19" s="5">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="O19" s="5">
+      <c r="M19" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O19">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
+      </c>
+      <c r="B20" s="5">
+        <v>8</v>
       </c>
       <c r="C20" cm="1">
         <f t="array" ref="C20">_xlfn.IFS(AND(LEFT(A20,1)&gt;="A",LEFT(A20,1)&lt;="F"),0,AND(LEFT(A20,1)&gt;="G",LEFT(A20,1)&lt;="M"),1,AND(LEFT(A20,1)&gt;="N",LEFT(A20,1)&lt;="Z"),2)</f>
         <v>2</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L20" s="5" cm="1">
+        <v>22</v>
+      </c>
+      <c r="K20" s="5">
+        <v>8</v>
+      </c>
+      <c r="L20" cm="1">
         <f t="array" ref="L20">_xlfn.IFS(AND(LEFT(J20,1)&gt;="A",LEFT(J20,1)&lt;="F"),0,AND(LEFT(J20,1)&gt;="G",LEFT(J20,1)&lt;="M"),1,AND(LEFT(J20,1)&gt;="N",LEFT(J20,1)&lt;="Z"),2)</f>
         <v>2</v>
       </c>
-      <c r="M20" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N20" s="5">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="O20" s="5">
+      <c r="M20" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O20">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>43</v>
+        <v>23</v>
+      </c>
+      <c r="B21" s="5">
+        <v>9</v>
       </c>
       <c r="C21">
         <f t="shared" ref="C21:C66" si="4">IF(AND(LEFT(A21,1)&gt;="A",LEFT(A21,1)&lt;="F"),0,IF(AND(LEFT(A21,1)&gt;="G",LEFT(A21,1)&lt;="M"),1,IF(AND(LEFT(A21,1)&gt;="N",LEFT(A21,1)&lt;="Z"),2,"")))</f>
         <v>0</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L21" s="5">
+        <v>23</v>
+      </c>
+      <c r="K21" s="5">
+        <v>9</v>
+      </c>
+      <c r="L21">
         <f t="shared" ref="L21:L84" si="5">IF(AND(LEFT(J21,1)&gt;="A",LEFT(J21,1)&lt;="F"),0,IF(AND(LEFT(J21,1)&gt;="G",LEFT(J21,1)&lt;="M"),1,IF(AND(LEFT(J21,1)&gt;="N",LEFT(J21,1)&lt;="Z"),2,"")))</f>
         <v>0</v>
       </c>
-      <c r="M21" s="6">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="N21" s="5">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="O21" s="5">
+      <c r="M21" s="3">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O21">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="B22" s="5">
+        <v>10</v>
       </c>
       <c r="C22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L22" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M22" s="6">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="N22" s="5">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="O22" s="5">
+        <v>24</v>
+      </c>
+      <c r="K22" s="5">
+        <v>10</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O22">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="2" t="s">
         <v>25</v>
+      </c>
+      <c r="B23" s="5">
+        <v>0.5</v>
       </c>
       <c r="C23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K23" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L23" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M23" s="6">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="N23" s="5">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="O23" s="5">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K23" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="B24" s="5">
+        <v>1</v>
       </c>
       <c r="C24">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K24" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K24" s="5">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="M24" s="3">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L24" s="5">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="M24" s="6">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="N24" s="5">
-        <f t="shared" si="2"/>
-        <v>1.5</v>
-      </c>
-      <c r="O24" s="5">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>29</v>
+      <c r="B25" s="5">
+        <v>2</v>
       </c>
       <c r="C25">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L25" s="5">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="M25" s="6">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="N25" s="5">
+        <v>27</v>
+      </c>
+      <c r="K25" s="5">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="M25" s="3">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="N25">
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="O25" s="5">
+      <c r="O25">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="B26" s="5">
+        <v>3</v>
       </c>
       <c r="C26">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L26" s="5">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="M26" s="6">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="N26" s="5">
+        <v>28</v>
+      </c>
+      <c r="K26" s="5">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="M26" s="3">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="N26">
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="O26" s="5">
+      <c r="O26">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+      <c r="B27" s="5">
+        <v>4</v>
       </c>
       <c r="C27">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L27" s="5">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="M27" s="6">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="N27" s="5">
+        <v>29</v>
+      </c>
+      <c r="K27" s="5">
+        <v>4</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="M27" s="3">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="N27">
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="O27" s="5">
+      <c r="O27">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
+      </c>
+      <c r="B28" s="5">
+        <v>5</v>
       </c>
       <c r="C28">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L28" s="5">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="M28" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N28" s="5">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="O28" s="5">
+        <v>30</v>
+      </c>
+      <c r="K28" s="5">
+        <v>5</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="M28" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O28">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
+      </c>
+      <c r="B29" s="5">
+        <v>6</v>
       </c>
       <c r="C29">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="L29" s="5">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="M29" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N29" s="5">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="O29" s="5">
+        <v>31</v>
+      </c>
+      <c r="K29" s="5">
+        <v>6</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="M29" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O29">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
+      </c>
+      <c r="B30" s="5">
+        <v>7</v>
       </c>
       <c r="C30">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L30" s="5">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="M30" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N30" s="5">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="O30" s="5">
+        <v>32</v>
+      </c>
+      <c r="K30" s="5">
+        <v>7</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="M30" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O30">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
+      </c>
+      <c r="B31" s="5">
+        <v>8</v>
       </c>
       <c r="C31">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L31" s="5">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="M31" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N31" s="5">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="O31" s="5">
+        <v>33</v>
+      </c>
+      <c r="K31" s="5">
+        <v>8</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="M31" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O31">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
+      </c>
+      <c r="B32" s="5">
+        <v>9</v>
       </c>
       <c r="C32">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K32" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L32" s="5">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="M32" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N32" s="5">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="O32" s="5">
+        <v>34</v>
+      </c>
+      <c r="K32" s="5">
+        <v>9</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="M32" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O32">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
+      </c>
+      <c r="B33" s="5">
+        <v>10</v>
       </c>
       <c r="C33">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L33" s="5">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="M33" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N33" s="5">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="O33" s="5">
+        <v>35</v>
+      </c>
+      <c r="K33" s="5">
+        <v>10</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="M33" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O33">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
+      </c>
+      <c r="B34" s="5">
+        <v>0.5</v>
       </c>
       <c r="C34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K34" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L34" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M34" s="6">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="N34" s="5">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="O34" s="5">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="K34" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>27</v>
+        <v>37</v>
+      </c>
+      <c r="B35" s="5">
+        <v>1</v>
       </c>
       <c r="C35">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K35" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L35" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M35" s="6">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="N35" s="5">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="O35" s="5">
+        <v>37</v>
+      </c>
+      <c r="K35" s="5">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O35">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
+      </c>
+      <c r="B36" s="5">
+        <v>2</v>
       </c>
       <c r="C36">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K36" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L36" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M36" s="6">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="N36" s="5">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="O36" s="5">
+        <v>38</v>
+      </c>
+      <c r="K36" s="5">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="3">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O36">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
+      </c>
+      <c r="B37" s="5">
+        <v>3</v>
       </c>
       <c r="C37">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K37" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L37" s="5">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="M37" s="6">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="N37" s="5">
+        <v>39</v>
+      </c>
+      <c r="K37" s="5">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="M37" s="3">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="N37">
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="O37" s="5">
+      <c r="O37">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
+      </c>
+      <c r="B38" s="5">
+        <v>4</v>
       </c>
       <c r="C38">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K38" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L38" s="5">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="M38" s="6">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="N38" s="5">
+        <v>40</v>
+      </c>
+      <c r="K38" s="5">
+        <v>4</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="M38" s="3">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="N38">
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="O38" s="5">
+      <c r="O38">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
+      </c>
+      <c r="B39" s="5">
+        <v>5</v>
       </c>
       <c r="C39">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="K39" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L39" s="5">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="M39" s="6">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="N39" s="5">
+        <v>41</v>
+      </c>
+      <c r="K39" s="5">
+        <v>5</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="M39" s="3">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="N39">
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="O39" s="5">
+      <c r="O39">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
+      </c>
+      <c r="B40" s="5">
+        <v>6</v>
       </c>
       <c r="C40">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K40" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="L40" s="5">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="M40" s="6">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="N40" s="5">
+        <v>42</v>
+      </c>
+      <c r="K40" s="5">
+        <v>6</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="M40" s="3">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="N40">
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="O40" s="5">
+      <c r="O40">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
+      </c>
+      <c r="B41" s="5">
+        <v>7</v>
       </c>
       <c r="C41">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="D41" s="3">
+        <f>IF(AND(LEFT(A41,1)&gt;="A",LEFT(A41,1)&lt;="F"),0,IF(AND(LEFT(A41,1)&gt;="G",LEFT(A41,1)&lt;="M"),1,IF(AND(LEFT(A41,1)&gt;="N",LEFT(A41,1)&lt;="Z"),2,"")))</f>
+        <v>2</v>
+      </c>
+      <c r="D41" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K41" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L41" s="5">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="M41" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N41" s="5">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="O41" s="5">
+        <v>43</v>
+      </c>
+      <c r="K41" s="5">
+        <v>7</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="M41" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O41">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
+      </c>
+      <c r="B42" s="5">
+        <v>8</v>
       </c>
       <c r="C42">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K42" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L42" s="5">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="M42" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N42" s="5">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="O42" s="5">
+        <v>44</v>
+      </c>
+      <c r="K42" s="5">
+        <v>8</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="M42" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O42">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="B43" s="5">
+        <v>9</v>
       </c>
       <c r="C43">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K43" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L43" s="5">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="M43" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N43" s="5">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="O43" s="5">
+        <v>45</v>
+      </c>
+      <c r="K43" s="5">
+        <v>9</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="M43" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O43">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="5">
         <v>10</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="C44">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="J44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K44" s="5">
         <v>10</v>
       </c>
-      <c r="K44" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L44" s="5">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="M44" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N44" s="5">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="O44" s="5">
+      <c r="L44">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="M44" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O44">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>25</v>
+        <v>46</v>
+      </c>
+      <c r="B45" s="5">
+        <v>0.5</v>
       </c>
       <c r="C45">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K45" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L45" s="5">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="M45" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N45" s="5">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="O45" s="5">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="K45" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="M45" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>27</v>
+        <v>47</v>
+      </c>
+      <c r="B46" s="5">
+        <v>1</v>
       </c>
       <c r="C46">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K46" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L46" s="5">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="M46" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N46" s="5">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="O46" s="5">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="K46" s="5">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="M46" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>29</v>
+        <v>48</v>
+      </c>
+      <c r="B47" s="5">
+        <v>2</v>
       </c>
       <c r="C47">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K47" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L47" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M47" s="6">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="N47" s="5">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="O47" s="5">
+        <v>48</v>
+      </c>
+      <c r="K47" s="5">
+        <v>2</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O47">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>31</v>
+        <v>49</v>
+      </c>
+      <c r="B48" s="5">
+        <v>3</v>
       </c>
       <c r="C48">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="K48" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L48" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M48" s="6">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="N48" s="5">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="O48" s="5">
+        <v>49</v>
+      </c>
+      <c r="K48" s="5">
+        <v>3</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O48">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
+      </c>
+      <c r="B49" s="5">
+        <v>4</v>
       </c>
       <c r="C49">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K49" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L49" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M49" s="6">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="N49" s="5">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="O49" s="5">
+        <v>50</v>
+      </c>
+      <c r="K49" s="5">
+        <v>4</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O49">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>35</v>
+        <v>51</v>
+      </c>
+      <c r="B50" s="5">
+        <v>5</v>
       </c>
       <c r="C50">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K50" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L50" s="5">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="M50" s="6">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="N50" s="5">
+        <v>51</v>
+      </c>
+      <c r="K50" s="5">
+        <v>5</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="M50" s="3">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="N50">
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="O50" s="5">
+      <c r="O50">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>37</v>
+        <v>52</v>
+      </c>
+      <c r="B51" s="5">
+        <v>6</v>
       </c>
       <c r="C51">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="K51" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="L51" s="5">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="M51" s="6">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="N51" s="5">
+        <v>52</v>
+      </c>
+      <c r="K51" s="5">
+        <v>6</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="M51" s="3">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="N51">
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="O51" s="5">
+      <c r="O51">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>39</v>
+        <v>53</v>
+      </c>
+      <c r="B52" s="5">
+        <v>7</v>
       </c>
       <c r="C52">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="K52" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L52" s="5">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="M52" s="6">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="N52" s="5">
+        <v>53</v>
+      </c>
+      <c r="K52" s="5">
+        <v>7</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="M52" s="3">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="N52">
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="O52" s="5">
+      <c r="O52">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
+      </c>
+      <c r="B53" s="5">
+        <v>8</v>
       </c>
       <c r="C53">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D53" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="K53" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L53" s="5">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="M53" s="6">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="N53" s="5">
+        <v>54</v>
+      </c>
+      <c r="K53" s="5">
+        <v>8</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="M53" s="3">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="N53">
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="O53" s="5">
+      <c r="O53">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>43</v>
+        <v>55</v>
+      </c>
+      <c r="B54" s="5">
+        <v>9</v>
       </c>
       <c r="C54">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="K54" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L54" s="5">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="M54" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N54" s="5">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="O54" s="5">
+        <v>55</v>
+      </c>
+      <c r="K54" s="5">
+        <v>9</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="M54" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O54">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>23</v>
+        <v>56</v>
+      </c>
+      <c r="B55" s="5">
+        <v>10</v>
       </c>
       <c r="C55">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="K55" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L55" s="5">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="M55" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N55" s="5">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="O55" s="5">
+        <v>56</v>
+      </c>
+      <c r="K55" s="5">
+        <v>10</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="M55" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O55">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>25</v>
+        <v>57</v>
+      </c>
+      <c r="B56" s="5">
+        <v>0.5</v>
       </c>
       <c r="C56">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D56" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="K56" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L56" s="5">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="M56" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N56" s="5">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="O56" s="5">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="K56" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="M56" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>27</v>
+        <v>58</v>
+      </c>
+      <c r="B57" s="5">
+        <v>1</v>
       </c>
       <c r="C57">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="K57" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L57" s="5">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="M57" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N57" s="5">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="O57" s="5">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="K57" s="5">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="M57" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>29</v>
+        <v>59</v>
+      </c>
+      <c r="B58" s="5">
+        <v>2</v>
       </c>
       <c r="C58">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K58" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L58" s="5">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="M58" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N58" s="5">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="O58" s="5">
+        <v>59</v>
+      </c>
+      <c r="K58" s="5">
+        <v>2</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="M58" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O58">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>31</v>
+        <v>60</v>
+      </c>
+      <c r="B59" s="5">
+        <v>3</v>
       </c>
       <c r="C59">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="K59" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L59" s="5">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="M59" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N59" s="5">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="O59" s="5">
+        <v>60</v>
+      </c>
+      <c r="K59" s="5">
+        <v>3</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="M59" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O59">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>33</v>
+        <v>61</v>
+      </c>
+      <c r="B60" s="5">
+        <v>4</v>
       </c>
       <c r="C60">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="K60" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L60" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M60" s="6">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="N60" s="5">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="O60" s="5">
+        <v>61</v>
+      </c>
+      <c r="K60" s="5">
+        <v>4</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M60" s="3">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O60">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>35</v>
+        <v>62</v>
+      </c>
+      <c r="B61" s="5">
+        <v>5</v>
       </c>
       <c r="C61">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D61" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="K61" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L61" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M61" s="6">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="N61" s="5">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="O61" s="5">
+        <v>62</v>
+      </c>
+      <c r="K61" s="5">
+        <v>5</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O61">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>37</v>
+        <v>63</v>
+      </c>
+      <c r="B62" s="5">
+        <v>6</v>
       </c>
       <c r="C62">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="K62" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="L62" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M62" s="6">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="N62" s="5">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="O62" s="5">
+        <v>63</v>
+      </c>
+      <c r="K62" s="5">
+        <v>6</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O62">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>39</v>
+        <v>64</v>
+      </c>
+      <c r="B63" s="5">
+        <v>7</v>
       </c>
       <c r="C63">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D63" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K63" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L63" s="5">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="M63" s="6">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="N63" s="5">
+        <v>64</v>
+      </c>
+      <c r="K63" s="5">
+        <v>7</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="M63" s="3">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="N63">
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="O63" s="5">
+      <c r="O63">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>41</v>
+        <v>65</v>
+      </c>
+      <c r="B64" s="5">
+        <v>8</v>
       </c>
       <c r="C64">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D64" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="K64" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L64" s="5">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="M64" s="6">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="N64" s="5">
+        <v>65</v>
+      </c>
+      <c r="K64" s="5">
+        <v>8</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="M64" s="3">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="N64">
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="O64" s="5">
+      <c r="O64">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>43</v>
+        <v>66</v>
+      </c>
+      <c r="B65" s="5">
+        <v>9</v>
       </c>
       <c r="C65">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="D65" s="3">
+      <c r="D65" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="K65" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L65" s="5">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="M65" s="6">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="N65" s="5">
+        <v>66</v>
+      </c>
+      <c r="K65" s="5">
+        <v>9</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="M65" s="3">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="N65">
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="O65" s="5">
+      <c r="O65">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>23</v>
+        <v>67</v>
+      </c>
+      <c r="B66" s="5">
+        <v>10</v>
       </c>
       <c r="C66">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="K66" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L66" s="5">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="M66" s="6">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="N66" s="5">
+        <v>67</v>
+      </c>
+      <c r="K66" s="5">
+        <v>10</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="M66" s="3">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="N66">
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="O66" s="5">
+      <c r="O66">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>25</v>
+        <v>68</v>
+      </c>
+      <c r="B67" s="5">
+        <v>0.5</v>
       </c>
       <c r="C67">
         <f t="shared" ref="C67:C101" si="6">IF(AND(LEFT(A67,1)&gt;="A",LEFT(A67,1)&lt;="F"),0,IF(AND(LEFT(A67,1)&gt;="G",LEFT(A67,1)&lt;="M"),1,IF(AND(LEFT(A67,1)&gt;="N",LEFT(A67,1)&lt;="Z"),2,"")))</f>
         <v>2</v>
       </c>
-      <c r="D67" s="3">
+      <c r="D67" s="4">
         <f t="shared" ref="D67:D101" si="7">VLOOKUP(A67,$J$1:$O$101,6,FALSE)</f>
         <v>1</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="K67" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L67" s="5">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="M67" s="6">
+        <v>68</v>
+      </c>
+      <c r="K67" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="M67" s="3">
         <f t="shared" ref="M67:M101" si="8">VLOOKUP(L67,$F$1:$H$4,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="N67" s="5">
+      <c r="N67">
         <f t="shared" ref="N67:N101" si="9">VLOOKUP(L67,$F$1:$H$4,3,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="O67" s="5">
+      <c r="O67">
         <f t="shared" ref="O67:O101" si="10">N67*K67/M67</f>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>27</v>
+        <v>69</v>
+      </c>
+      <c r="B68" s="5">
+        <v>1</v>
       </c>
       <c r="C68">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="D68" s="3">
+      <c r="D68" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="K68" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L68" s="5">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="M68" s="6">
+        <v>69</v>
+      </c>
+      <c r="K68" s="5">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="M68" s="3">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="N68" s="5">
+      <c r="N68">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="O68" s="5">
+      <c r="O68">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>29</v>
+        <v>70</v>
+      </c>
+      <c r="B69" s="5">
+        <v>2</v>
       </c>
       <c r="C69">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="D69" s="3">
+      <c r="D69" s="4">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="K69" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L69" s="5">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="M69" s="6">
+        <v>70</v>
+      </c>
+      <c r="K69" s="5">
+        <v>2</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="M69" s="3">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="N69" s="5">
+      <c r="N69">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="O69" s="5">
+      <c r="O69">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>31</v>
+        <v>71</v>
+      </c>
+      <c r="B70" s="5">
+        <v>3</v>
       </c>
       <c r="C70">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D70" s="4">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K70" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L70" s="5">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="M70" s="6">
+        <v>71</v>
+      </c>
+      <c r="K70" s="5">
+        <v>3</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="M70" s="3">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="N70" s="5">
+      <c r="N70">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="O70" s="5">
+      <c r="O70">
         <f t="shared" si="10"/>
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>33</v>
+        <v>72</v>
+      </c>
+      <c r="B71" s="5">
+        <v>4</v>
       </c>
       <c r="C71">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="D71" s="3">
+      <c r="D71" s="4">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K71" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L71" s="5">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="M71" s="6">
+        <v>72</v>
+      </c>
+      <c r="K71" s="5">
+        <v>4</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="M71" s="3">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="N71" s="5">
+      <c r="N71">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="O71" s="5">
+      <c r="O71">
         <f t="shared" si="10"/>
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>35</v>
+        <v>73</v>
+      </c>
+      <c r="B72" s="5">
+        <v>5</v>
       </c>
       <c r="C72">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="4">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K72" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L72" s="5">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="M72" s="6">
+        <v>73</v>
+      </c>
+      <c r="K72" s="5">
+        <v>5</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="M72" s="3">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="N72" s="5">
+      <c r="N72">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="O72" s="5">
+      <c r="O72">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>37</v>
+        <v>74</v>
+      </c>
+      <c r="B73" s="5">
+        <v>6</v>
       </c>
       <c r="C73">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D73" s="3">
+      <c r="D73" s="4">
         <f t="shared" si="7"/>
         <v>24</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="K73" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="L73" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M73" s="6">
+        <v>74</v>
+      </c>
+      <c r="K73" s="5">
+        <v>6</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
         <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
-      <c r="N73" s="5">
+      <c r="N73">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="O73" s="5">
+      <c r="O73">
         <f t="shared" si="10"/>
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>39</v>
+        <v>75</v>
+      </c>
+      <c r="B74" s="5">
+        <v>7</v>
       </c>
       <c r="C74">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D74" s="3">
+      <c r="D74" s="4">
         <f t="shared" si="7"/>
         <v>28</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K74" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L74" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M74" s="6">
+        <v>75</v>
+      </c>
+      <c r="K74" s="5">
+        <v>7</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
         <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
-      <c r="N74" s="5">
+      <c r="N74">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="O74" s="5">
+      <c r="O74">
         <f t="shared" si="10"/>
         <v>28</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>41</v>
+        <v>76</v>
+      </c>
+      <c r="B75" s="5">
+        <v>8</v>
       </c>
       <c r="C75">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D75" s="3">
+      <c r="D75" s="4">
         <f t="shared" si="7"/>
         <v>32</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="K75" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L75" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M75" s="6">
+        <v>76</v>
+      </c>
+      <c r="K75" s="5">
+        <v>8</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
         <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
-      <c r="N75" s="5">
+      <c r="N75">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="O75" s="5">
+      <c r="O75">
         <f t="shared" si="10"/>
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>43</v>
+        <v>77</v>
+      </c>
+      <c r="B76" s="5">
+        <v>9</v>
       </c>
       <c r="C76">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="4">
         <f t="shared" si="7"/>
         <v>27</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="K76" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L76" s="5">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="M76" s="6">
+        <v>77</v>
+      </c>
+      <c r="K76" s="5">
+        <v>9</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="M76" s="3">
         <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
-      <c r="N76" s="5">
+      <c r="N76">
         <f t="shared" si="9"/>
         <v>1.5</v>
       </c>
-      <c r="O76" s="5">
+      <c r="O76">
         <f t="shared" si="10"/>
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>23</v>
+        <v>78</v>
+      </c>
+      <c r="B77" s="5">
+        <v>10</v>
       </c>
       <c r="C77">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="D77" s="3">
+      <c r="D77" s="4">
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="K77" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L77" s="5">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="M77" s="6">
+        <v>78</v>
+      </c>
+      <c r="K77" s="5">
+        <v>10</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="M77" s="3">
         <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
-      <c r="N77" s="5">
+      <c r="N77">
         <f t="shared" si="9"/>
         <v>1.5</v>
       </c>
-      <c r="O77" s="5">
+      <c r="O77">
         <f t="shared" si="10"/>
         <v>30</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>25</v>
+        <v>79</v>
+      </c>
+      <c r="B78" s="5">
+        <v>0.5</v>
       </c>
       <c r="C78">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="D78" s="3">
+      <c r="D78" s="4">
         <f t="shared" si="7"/>
         <v>1.5</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K78" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L78" s="5">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="M78" s="6">
+        <v>79</v>
+      </c>
+      <c r="K78" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="M78" s="3">
         <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
-      <c r="N78" s="5">
+      <c r="N78">
         <f t="shared" si="9"/>
         <v>1.5</v>
       </c>
-      <c r="O78" s="5">
+      <c r="O78">
         <f t="shared" si="10"/>
         <v>1.5</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>27</v>
+        <v>80</v>
+      </c>
+      <c r="B79" s="5">
+        <v>1</v>
       </c>
       <c r="C79">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="D79" s="3">
+      <c r="D79" s="4">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="K79" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L79" s="5">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="M79" s="6">
+        <v>80</v>
+      </c>
+      <c r="K79" s="5">
+        <v>1</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="M79" s="3">
         <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
-      <c r="N79" s="5">
+      <c r="N79">
         <f t="shared" si="9"/>
         <v>1.5</v>
       </c>
-      <c r="O79" s="5">
+      <c r="O79">
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>29</v>
+        <v>81</v>
+      </c>
+      <c r="B80" s="5">
+        <v>2</v>
       </c>
       <c r="C80">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="D80" s="3">
+      <c r="D80" s="4">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="K80" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L80" s="5">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="M80" s="6">
+        <v>81</v>
+      </c>
+      <c r="K80" s="5">
+        <v>2</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="M80" s="3">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="N80" s="5">
+      <c r="N80">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="O80" s="5">
+      <c r="O80">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>31</v>
+        <v>82</v>
+      </c>
+      <c r="B81" s="5">
+        <v>3</v>
       </c>
       <c r="C81">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="4">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="K81" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L81" s="5">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="M81" s="6">
+        <v>82</v>
+      </c>
+      <c r="K81" s="5">
+        <v>3</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="M81" s="3">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="N81" s="5">
+      <c r="N81">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="O81" s="5">
+      <c r="O81">
         <f t="shared" si="10"/>
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>33</v>
+        <v>83</v>
+      </c>
+      <c r="B82" s="5">
+        <v>4</v>
       </c>
       <c r="C82">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="D82" s="3">
+      <c r="D82" s="4">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="K82" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L82" s="5">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="M82" s="6">
+        <v>83</v>
+      </c>
+      <c r="K82" s="5">
+        <v>4</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="M82" s="3">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="N82" s="5">
+      <c r="N82">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="O82" s="5">
+      <c r="O82">
         <f t="shared" si="10"/>
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>35</v>
+        <v>84</v>
+      </c>
+      <c r="B83" s="5">
+        <v>5</v>
       </c>
       <c r="C83">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="4">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="K83" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L83" s="5">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="M83" s="6">
+        <v>84</v>
+      </c>
+      <c r="K83" s="5">
+        <v>5</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="M83" s="3">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="N83" s="5">
+      <c r="N83">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="O83" s="5">
+      <c r="O83">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>37</v>
+        <v>85</v>
+      </c>
+      <c r="B84" s="5">
+        <v>6</v>
       </c>
       <c r="C84">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="D84" s="3">
+      <c r="D84" s="4">
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="K84" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="L84" s="5">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="M84" s="6">
+        <v>85</v>
+      </c>
+      <c r="K84" s="5">
+        <v>6</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="M84" s="3">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="N84" s="5">
+      <c r="N84">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="O84" s="5">
+      <c r="O84">
         <f t="shared" si="10"/>
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>39</v>
+        <v>86</v>
+      </c>
+      <c r="B85" s="5">
+        <v>7</v>
       </c>
       <c r="C85">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="D85" s="3">
+      <c r="D85" s="4">
         <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="K85" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L85" s="5">
+        <v>86</v>
+      </c>
+      <c r="K85" s="5">
+        <v>7</v>
+      </c>
+      <c r="L85">
         <f t="shared" ref="L85:L101" si="11">IF(AND(LEFT(J85,1)&gt;="A",LEFT(J85,1)&lt;="F"),0,IF(AND(LEFT(J85,1)&gt;="G",LEFT(J85,1)&lt;="M"),1,IF(AND(LEFT(J85,1)&gt;="N",LEFT(J85,1)&lt;="Z"),2,"")))</f>
         <v>2</v>
       </c>
-      <c r="M85" s="6">
+      <c r="M85" s="3">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="N85" s="5">
+      <c r="N85">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="O85" s="5">
+      <c r="O85">
         <f t="shared" si="10"/>
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>41</v>
+        <v>87</v>
+      </c>
+      <c r="B86" s="5">
+        <v>8</v>
       </c>
       <c r="C86">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D86" s="3">
+      <c r="D86" s="4">
         <f t="shared" si="7"/>
         <v>32</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="K86" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L86" s="5">
+        <v>87</v>
+      </c>
+      <c r="K86" s="5">
+        <v>8</v>
+      </c>
+      <c r="L86">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M86" s="6">
+      <c r="M86" s="3">
         <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
-      <c r="N86" s="5">
+      <c r="N86">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="O86" s="5">
+      <c r="O86">
         <f t="shared" si="10"/>
         <v>32</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>43</v>
+        <v>88</v>
+      </c>
+      <c r="B87" s="5">
+        <v>9</v>
       </c>
       <c r="C87">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D87" s="3">
+      <c r="D87" s="4">
         <f t="shared" si="7"/>
         <v>36</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="K87" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L87" s="5">
+        <v>88</v>
+      </c>
+      <c r="K87" s="5">
+        <v>9</v>
+      </c>
+      <c r="L87">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M87" s="6">
+      <c r="M87" s="3">
         <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
-      <c r="N87" s="5">
+      <c r="N87">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="O87" s="5">
+      <c r="O87">
         <f t="shared" si="10"/>
         <v>36</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>23</v>
+        <v>89</v>
+      </c>
+      <c r="B88" s="5">
+        <v>10</v>
       </c>
       <c r="C88">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D88" s="3">
+      <c r="D88" s="4">
         <f t="shared" si="7"/>
         <v>40</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="K88" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L88" s="5">
+        <v>89</v>
+      </c>
+      <c r="K88" s="5">
+        <v>10</v>
+      </c>
+      <c r="L88">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M88" s="6">
+      <c r="M88" s="3">
         <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
-      <c r="N88" s="5">
+      <c r="N88">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="O88" s="5">
+      <c r="O88">
         <f t="shared" si="10"/>
         <v>40</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>25</v>
+        <v>90</v>
+      </c>
+      <c r="B89" s="5">
+        <v>0.5</v>
       </c>
       <c r="C89">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="4">
         <f t="shared" si="7"/>
         <v>1.5</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="K89" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L89" s="5">
+        <v>90</v>
+      </c>
+      <c r="K89" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="L89">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="M89" s="6">
+      <c r="M89" s="3">
         <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
-      <c r="N89" s="5">
+      <c r="N89">
         <f t="shared" si="9"/>
         <v>1.5</v>
       </c>
-      <c r="O89" s="5">
+      <c r="O89">
         <f t="shared" si="10"/>
         <v>1.5</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>27</v>
+        <v>91</v>
+      </c>
+      <c r="B90" s="5">
+        <v>1</v>
       </c>
       <c r="C90">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="D90" s="3">
+      <c r="D90" s="4">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="K90" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L90" s="5">
+        <v>91</v>
+      </c>
+      <c r="K90" s="5">
+        <v>1</v>
+      </c>
+      <c r="L90">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="M90" s="6">
+      <c r="M90" s="3">
         <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
-      <c r="N90" s="5">
+      <c r="N90">
         <f t="shared" si="9"/>
         <v>1.5</v>
       </c>
-      <c r="O90" s="5">
+      <c r="O90">
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>29</v>
+        <v>92</v>
+      </c>
+      <c r="B91" s="5">
+        <v>2</v>
       </c>
       <c r="C91">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="4">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="K91" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L91" s="5">
+        <v>92</v>
+      </c>
+      <c r="K91" s="5">
+        <v>2</v>
+      </c>
+      <c r="L91">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="M91" s="6">
+      <c r="M91" s="3">
         <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
-      <c r="N91" s="5">
+      <c r="N91">
         <f t="shared" si="9"/>
         <v>1.5</v>
       </c>
-      <c r="O91" s="5">
+      <c r="O91">
         <f t="shared" si="10"/>
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>31</v>
+        <v>93</v>
+      </c>
+      <c r="B92" s="5">
+        <v>3</v>
       </c>
       <c r="C92">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="D92" s="3">
+      <c r="D92" s="4">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="K92" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L92" s="5">
+        <v>93</v>
+      </c>
+      <c r="K92" s="5">
+        <v>3</v>
+      </c>
+      <c r="L92">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="M92" s="6">
+      <c r="M92" s="3">
         <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
-      <c r="N92" s="5">
+      <c r="N92">
         <f t="shared" si="9"/>
         <v>1.5</v>
       </c>
-      <c r="O92" s="5">
+      <c r="O92">
         <f t="shared" si="10"/>
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>33</v>
+        <v>94</v>
+      </c>
+      <c r="B93" s="5">
+        <v>4</v>
       </c>
       <c r="C93">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="D93" s="3">
+      <c r="D93" s="4">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="K93" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L93" s="5">
+        <v>94</v>
+      </c>
+      <c r="K93" s="5">
+        <v>4</v>
+      </c>
+      <c r="L93">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="M93" s="6">
+      <c r="M93" s="3">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="N93" s="5">
+      <c r="N93">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="O93" s="5">
+      <c r="O93">
         <f t="shared" si="10"/>
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>35</v>
+        <v>95</v>
+      </c>
+      <c r="B94" s="5">
+        <v>5</v>
       </c>
       <c r="C94">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="4">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="K94" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L94" s="5">
+        <v>95</v>
+      </c>
+      <c r="K94" s="5">
+        <v>5</v>
+      </c>
+      <c r="L94">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="M94" s="6">
+      <c r="M94" s="3">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="N94" s="5">
+      <c r="N94">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="O94" s="5">
+      <c r="O94">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>37</v>
+        <v>96</v>
+      </c>
+      <c r="B95" s="5">
+        <v>6</v>
       </c>
       <c r="C95">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="D95" s="3">
+      <c r="D95" s="4">
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K95" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="L95" s="5">
+        <v>96</v>
+      </c>
+      <c r="K95" s="5">
+        <v>6</v>
+      </c>
+      <c r="L95">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="M95" s="6">
+      <c r="M95" s="3">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="N95" s="5">
+      <c r="N95">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="O95" s="5">
+      <c r="O95">
         <f t="shared" si="10"/>
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>39</v>
+        <v>97</v>
+      </c>
+      <c r="B96" s="5">
+        <v>7</v>
       </c>
       <c r="C96">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="D96" s="3">
+      <c r="D96" s="4">
         <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="K96" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L96" s="5">
+        <v>97</v>
+      </c>
+      <c r="K96" s="5">
+        <v>7</v>
+      </c>
+      <c r="L96">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="M96" s="6">
+      <c r="M96" s="3">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="N96" s="5">
+      <c r="N96">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="O96" s="5">
+      <c r="O96">
         <f t="shared" si="10"/>
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>41</v>
+        <v>98</v>
+      </c>
+      <c r="B97" s="5">
+        <v>8</v>
       </c>
       <c r="C97">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="D97" s="3">
+      <c r="D97" s="4">
         <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="K97" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L97" s="5">
+        <v>98</v>
+      </c>
+      <c r="K97" s="5">
+        <v>8</v>
+      </c>
+      <c r="L97">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="M97" s="6">
+      <c r="M97" s="3">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="N97" s="5">
+      <c r="N97">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="O97" s="5">
+      <c r="O97">
         <f t="shared" si="10"/>
         <v>16</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>43</v>
+        <v>99</v>
+      </c>
+      <c r="B98" s="5">
+        <v>9</v>
       </c>
       <c r="C98">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="D98" s="3">
+      <c r="D98" s="4">
         <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="K98" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L98" s="5">
+        <v>99</v>
+      </c>
+      <c r="K98" s="5">
+        <v>9</v>
+      </c>
+      <c r="L98">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="M98" s="6">
+      <c r="M98" s="3">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="N98" s="5">
+      <c r="N98">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="O98" s="5">
+      <c r="O98">
         <f t="shared" si="10"/>
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>23</v>
+        <v>100</v>
+      </c>
+      <c r="B99" s="5">
+        <v>10</v>
       </c>
       <c r="C99">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D99" s="3">
+      <c r="D99" s="4">
         <f t="shared" si="7"/>
         <v>40</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="K99" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L99" s="5">
+        <v>100</v>
+      </c>
+      <c r="K99" s="5">
+        <v>10</v>
+      </c>
+      <c r="L99">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M99" s="6">
+      <c r="M99" s="3">
         <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
-      <c r="N99" s="5">
+      <c r="N99">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="O99" s="5">
+      <c r="O99">
         <f t="shared" si="10"/>
         <v>40</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>25</v>
+        <v>101</v>
+      </c>
+      <c r="B100" s="5">
+        <v>0.5</v>
       </c>
       <c r="C100">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="K100" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L100" s="5">
+        <v>101</v>
+      </c>
+      <c r="K100" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="L100">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M100" s="6">
+      <c r="M100" s="3">
         <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
-      <c r="N100" s="5">
+      <c r="N100">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="O100" s="5">
+      <c r="O100">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>27</v>
+        <v>102</v>
+      </c>
+      <c r="B101" s="5">
+        <v>1</v>
       </c>
       <c r="C101">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="4">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="K101" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L101" s="5">
+        <v>102</v>
+      </c>
+      <c r="K101" s="5">
+        <v>1</v>
+      </c>
+      <c r="L101">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M101" s="6">
+      <c r="M101" s="3">
         <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
-      <c r="N101" s="5">
+      <c r="N101">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="O101" s="5">
+      <c r="O101">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K102" s="5"/>
-      <c r="L102" s="5"/>
-      <c r="M102" s="5"/>
-      <c r="N102" s="5"/>
-      <c r="O102" s="5"/>
-    </row>
-    <row r="103" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K103" s="5"/>
-      <c r="L103" s="5"/>
-      <c r="M103" s="5"/>
-      <c r="N103" s="5"/>
-      <c r="O103" s="5"/>
-    </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -4739,7 +4663,7 @@
   <dimension ref="A1:Z47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4751,23 +4675,23 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -4791,13 +4715,13 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="B2" s="2">
         <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="E2">
         <f>COUNTIF($A$2:$A$47,D2)</f>
@@ -4810,7 +4734,7 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="B3" s="2">
         <v>70</v>
@@ -4819,7 +4743,7 @@
         <v>80</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E6" si="0">COUNTIF($A$2:$A$47,D3)</f>
@@ -4832,7 +4756,7 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="B4" s="2">
         <v>40</v>
@@ -4841,7 +4765,7 @@
         <v>60</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
@@ -4858,7 +4782,7 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="B5" s="2">
         <v>20</v>
@@ -4867,7 +4791,7 @@
         <v>100</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
@@ -4880,7 +4804,7 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="B6" s="2">
         <v>90</v>
@@ -4889,7 +4813,7 @@
         <v>30</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
@@ -4902,7 +4826,7 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="B7" s="2">
         <v>50</v>
@@ -4913,7 +4837,7 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="B8" s="2">
         <v>60</v>
@@ -4924,15 +4848,19 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="B9" s="2">
         <v>45</v>
       </c>
+      <c r="E9">
+        <f>INDEX(A2:C4,2,2)</f>
+        <v>70</v>
+      </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="B10" s="2">
         <v>25</v>
@@ -4943,7 +4871,7 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="B11" s="2">
         <v>35</v>
@@ -4954,7 +4882,7 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="B12" s="2">
         <v>60</v>
@@ -4965,7 +4893,7 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="B13" s="2">
         <v>80</v>
@@ -4973,7 +4901,7 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="B14" s="2">
         <v>40</v>
@@ -4984,7 +4912,7 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="B15" s="2">
         <v>65</v>
@@ -4995,7 +4923,7 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="B16" s="2">
         <v>55</v>
@@ -5006,7 +4934,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="B17" s="2">
         <v>70</v>
@@ -5014,7 +4942,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="B18" s="2">
         <v>45</v>
@@ -5025,7 +4953,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="B19" s="2">
         <v>25</v>
@@ -5036,7 +4964,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="B20" s="2">
         <v>35</v>
@@ -5044,7 +4972,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="B21" s="2">
         <v>60</v>
@@ -5055,7 +4983,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="B22" s="2">
         <v>70</v>
@@ -5066,7 +4994,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="B23" s="2">
         <v>45</v>
@@ -5077,7 +5005,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="B24" s="2">
         <v>25</v>
@@ -5088,7 +5016,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="B25" s="2">
         <v>35</v>
@@ -5096,7 +5024,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="B26" s="2">
         <v>60</v>
@@ -5107,7 +5035,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="B27" s="2">
         <v>80</v>
@@ -5118,7 +5046,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="B28" s="2">
         <v>40</v>
@@ -5129,7 +5057,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="B29" s="2">
         <v>65</v>
@@ -5140,7 +5068,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="B30" s="2">
         <v>55</v>
@@ -5151,7 +5079,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="B31" s="2">
         <v>70</v>
@@ -5162,7 +5090,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="B32" s="2">
         <v>45</v>
@@ -5170,7 +5098,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="B33" s="2">
         <v>25</v>
@@ -5181,7 +5109,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="B34" s="2">
         <v>35</v>
@@ -5192,7 +5120,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="B35" s="2">
         <v>60</v>
@@ -5203,7 +5131,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="B36" s="2">
         <v>80</v>
@@ -5214,7 +5142,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="B37" s="2">
         <v>40</v>
@@ -5222,7 +5150,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="B38" s="2">
         <v>65</v>
@@ -5233,7 +5161,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="B39" s="2">
         <v>55</v>
@@ -5244,7 +5172,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="B40" s="2">
         <v>70</v>
@@ -5255,7 +5183,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="B41" s="2">
         <v>40</v>
@@ -5266,7 +5194,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="B42" s="2">
         <v>20</v>
@@ -5277,7 +5205,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="B43" s="2">
         <v>90</v>
@@ -5288,7 +5216,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="B44" s="2">
         <v>50</v>
@@ -5299,7 +5227,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="B45" s="2">
         <v>60</v>
@@ -5310,7 +5238,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="B46" s="2">
         <v>45</v>
@@ -5318,7 +5246,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="B47" s="2">
         <v>25</v>
@@ -5328,4 +5256,18 @@
   <autoFilter ref="A1:C47" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D66C23-10B9-4D9C-9CD3-89796E1FBD15}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>